--- a/biology/Zoologie/Dendropsophus_columbianus/Dendropsophus_columbianus.xlsx
+++ b/biology/Zoologie/Dendropsophus_columbianus/Dendropsophus_columbianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus columbianus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus columbianus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre entre 950 et 2 300 m d'altitude sur le versant Ouest de la cordillère centrale et sur les versants Est et Ouest de la cordillère occidentale, dans les départements de Cauca, de Quindío, de Risaralda et de Valle del Cauca[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle se rencontre entre 950 et 2 300 m d'altitude sur le versant Ouest de la cordillère centrale et sur les versants Est et Ouest de la cordillère occidentale, dans les départements de Cauca, de Quindío, de Risaralda et de Valle del Cauca,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à son lieu de découverte, la Colombie.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boettger, 1892 : Katalog der Batrachier-Sammlung im Museum der Senckenbergischen Naturforschenden Gesellshaft in Frankfurt am Main. Frankfurt am Main, Gebrüder Knauer, p. 1-73 (texte intégral).</t>
         </is>
